--- a/BalanceSheet/KDP_bal.xlsx
+++ b/BalanceSheet/KDP_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-77000000.0</v>
+        <v>841000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>68000000.0</v>
+        <v>817000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-74000000.0</v>
+        <v>876000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-63000000.0</v>
+        <v>797000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-38000000.0</v>
+        <v>732000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>654000000.0</v>
@@ -1983,19 +1983,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>121000000.0</v>
+        <v>3871000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>124000000.0</v>
+        <v>3740000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>240000000.0</v>
+        <v>3517000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>110000000.0</v>
+        <v>3377000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>150000000.0</v>
+        <v>3238000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>3176000000.0</v>
@@ -3513,19 +3513,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>11000000.0</v>
+        <v>5981000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>-24000000.0</v>
+        <v>5948000000.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>2000000.0</v>
+        <v>5914000000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-24000000.0</v>
+        <v>5893000000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>-5000000.0</v>
+        <v>5888000000.0</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>6030000000.0</v>
@@ -5462,7 +5462,7 @@
         <v>15303000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>15446000000.0</v>
+        <v>14750000000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>13045000000.0</v>
@@ -5589,7 +5589,7 @@
         <v>15526000000.0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>15547000000.0</v>
+        <v>14851000000.0</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>13147000000.0</v>
